--- a/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364128CB-170F-4A7D-B007-352927EB271C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4F8D81-A0AE-4C71-8570-7288C163FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{320E5E07-1857-47BD-BF9D-975B69F8DC8D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C99D17C2-F01B-49F6-B86C-698A7BF6AA15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="729">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>16,21%</t>
+    <t>15,9%</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -104,10 +104,10 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -116,2131 +116,2116 @@
     <t>94,87%</t>
   </si>
   <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A028E4-FDBB-4BE4-A656-DD72736C3282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B0EEB2-1BEB-40F5-844F-FADF67A2686A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3654,10 +3639,10 @@
         <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3666,13 +3651,13 @@
         <v>3205</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3681,7 +3666,7 @@
         <v>6618</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>103</v>
@@ -4236,7 +4221,7 @@
         <v>76</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>146</v>
@@ -4251,10 +4236,10 @@
         <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4254,13 @@
         <v>4905</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -4284,13 +4269,13 @@
         <v>5756</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -4299,13 +4284,13 @@
         <v>10660</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4305,13 @@
         <v>105954</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H34" s="7">
         <v>135</v>
@@ -4335,13 +4320,13 @@
         <v>142850</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M34" s="7">
         <v>245</v>
@@ -4350,13 +4335,13 @@
         <v>248804</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,10 +4412,10 @@
         <v>144</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -4442,10 +4427,10 @@
         <v>147</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -4457,10 +4442,10 @@
         <v>132</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,10 +4463,10 @@
         <v>173</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -4490,13 +4475,13 @@
         <v>15109</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -4505,13 +4490,13 @@
         <v>29718</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4511,13 @@
         <v>483217</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H38" s="7">
         <v>633</v>
@@ -4541,13 +4526,13 @@
         <v>647312</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M38" s="7">
         <v>1135</v>
@@ -4556,13 +4541,13 @@
         <v>1130529</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,7 +4603,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4642,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAE8346-E941-4746-BE64-5E0A04DFC8A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A0B75E-DE1C-42F0-98FE-B8402CBBF212}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4659,7 +4644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4764,39 +4749,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,39 +4794,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,39 +4839,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,39 +4884,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4933,13 @@
         <v>3192</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4963,13 +4948,13 @@
         <v>6725</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4978,13 +4963,13 @@
         <v>9917</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,10 +4984,10 @@
         <v>4140</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>203</v>
@@ -5050,13 +5035,13 @@
         <v>71871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -5065,13 +5050,13 @@
         <v>80223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -5080,13 +5065,13 @@
         <v>152094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5139,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5169,13 +5154,13 @@
         <v>7624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5184,13 +5169,13 @@
         <v>10611</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5190,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5220,13 +5205,13 @@
         <v>5438</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5235,13 +5220,13 @@
         <v>9621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5241,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -5271,13 +5256,13 @@
         <v>66906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -5286,13 +5271,13 @@
         <v>115478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5345,13 @@
         <v>3446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5375,13 +5360,13 @@
         <v>4279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5390,13 +5375,13 @@
         <v>7726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5396,13 @@
         <v>4104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5426,13 +5411,13 @@
         <v>15055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5441,13 +5426,13 @@
         <v>19160</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5447,13 @@
         <v>100757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -5477,13 +5462,13 @@
         <v>115133</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>202</v>
@@ -5492,13 +5477,13 @@
         <v>215892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5551,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5581,13 +5566,13 @@
         <v>1984</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5596,10 +5581,10 @@
         <v>3018</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>272</v>
@@ -5620,10 +5605,10 @@
         <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5632,7 +5617,7 @@
         <v>3099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>276</v>
@@ -5790,10 +5775,10 @@
         <v>292</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5802,13 +5787,13 @@
         <v>6333</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5808,13 @@
         <v>2132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5838,13 +5823,13 @@
         <v>5449</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5853,13 +5838,13 @@
         <v>7581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5859,13 @@
         <v>48567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -5889,13 +5874,13 @@
         <v>59488</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -5904,13 +5889,13 @@
         <v>108055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5963,13 @@
         <v>4318</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5993,13 +5978,13 @@
         <v>4421</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -6008,13 +5993,13 @@
         <v>8739</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6014,13 @@
         <v>5984</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -6044,13 +6029,13 @@
         <v>14285</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6059,13 +6044,13 @@
         <v>20269</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6065,13 @@
         <v>101961</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H30" s="7">
         <v>112</v>
@@ -6095,13 +6080,13 @@
         <v>123255</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -6110,13 +6095,13 @@
         <v>225218</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6175,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6199,13 +6184,13 @@
         <v>5555</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6214,13 +6199,13 @@
         <v>5555</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6220,13 @@
         <v>5397</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -6250,13 +6235,13 @@
         <v>12206</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -6265,13 +6250,13 @@
         <v>17603</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6271,13 @@
         <v>115355</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H34" s="7">
         <v>135</v>
@@ -6301,13 +6286,13 @@
         <v>146657</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M34" s="7">
         <v>236</v>
@@ -6316,13 +6301,13 @@
         <v>262012</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>358</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6375,13 @@
         <v>16035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>122</v>
+        <v>356</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H36" s="7">
         <v>32</v>
@@ -6405,13 +6390,13 @@
         <v>35863</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -6420,13 +6405,13 @@
         <v>51898</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6426,13 @@
         <v>29297</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>367</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -6456,13 +6441,13 @@
         <v>70678</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M37" s="7">
         <v>91</v>
@@ -6471,13 +6456,13 @@
         <v>99975</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6477,13 @@
         <v>514305</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="H38" s="7">
         <v>597</v>
@@ -6507,13 +6492,13 @@
         <v>636434</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="M38" s="7">
         <v>1061</v>
@@ -6522,13 +6507,13 @@
         <v>1150739</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6569,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6608,7 +6593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C237616-2088-4392-8CF9-65739824B33C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905615A3-6A0A-4BF8-99ED-D46347486E9A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6625,7 +6610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6732,13 +6717,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6753,7 +6738,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6762,13 +6747,13 @@
         <v>1839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>383</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6768,13 @@
         <v>5034</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6798,13 +6783,13 @@
         <v>8074</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6813,13 +6798,13 @@
         <v>13108</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6819,13 @@
         <v>33060</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -6849,13 +6834,13 @@
         <v>40279</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -6864,13 +6849,13 @@
         <v>73340</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,13 +6923,13 @@
         <v>1020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -7022,10 +7007,10 @@
         <v>413</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>223</v>
+        <v>414</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7025,13 @@
         <v>81810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -7055,13 +7040,13 @@
         <v>102511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>170</v>
@@ -7225,7 +7210,7 @@
         <v>3612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>434</v>
@@ -7383,10 +7368,10 @@
         <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,10 +7386,10 @@
         <v>5440</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>452</v>
@@ -7562,7 +7547,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7586,13 +7571,13 @@
         <v>2262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>199</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,13 +7592,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7622,13 +7607,13 @@
         <v>4436</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7637,13 +7622,13 @@
         <v>5235</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,10 +7643,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7673,13 +7658,13 @@
         <v>43834</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -7688,13 +7673,13 @@
         <v>85115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7747,13 @@
         <v>1651</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7777,13 +7762,13 @@
         <v>3713</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>488</v>
+        <v>295</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7792,13 +7777,13 @@
         <v>5364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>145</v>
+        <v>487</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>488</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7798,13 @@
         <v>3377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7828,13 +7813,13 @@
         <v>6889</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>491</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7843,13 +7828,13 @@
         <v>10266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,13 +7849,13 @@
         <v>43418</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -7879,13 +7864,13 @@
         <v>56786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>503</v>
+        <v>86</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -7894,13 +7879,13 @@
         <v>100204</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>501</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,10 +7953,10 @@
         <v>2803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>292</v>
@@ -7983,13 +7968,13 @@
         <v>3813</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>434</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7998,13 +7983,13 @@
         <v>6616</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,13 +8004,13 @@
         <v>2860</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8034,13 +8019,13 @@
         <v>7176</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -8049,13 +8034,13 @@
         <v>10036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8055,13 @@
         <v>106522</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -8085,13 +8070,13 @@
         <v>136636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M30" s="7">
         <v>219</v>
@@ -8100,13 +8085,13 @@
         <v>243158</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,7 +8165,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8195,7 +8180,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>524</v>
+        <v>248</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8210,7 +8195,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8210,13 @@
         <v>2186</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>526</v>
+        <v>47</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -8240,13 +8225,13 @@
         <v>10059</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -8255,13 +8240,13 @@
         <v>12245</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>126</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,10 +8261,10 @@
         <v>131982</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8291,13 +8276,13 @@
         <v>166238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M34" s="7">
         <v>273</v>
@@ -8306,13 +8291,13 @@
         <v>298220</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>139</v>
+        <v>536</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8380,13 +8365,13 @@
         <v>7885</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>538</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -8395,13 +8380,13 @@
         <v>20568</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -8410,7 +8395,7 @@
         <v>28452</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>60</v>
@@ -8431,13 +8416,13 @@
         <v>27772</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -8446,13 +8431,13 @@
         <v>51051</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>546</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -8461,13 +8446,13 @@
         <v>78823</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>123</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8482,13 +8467,13 @@
         <v>555671</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H38" s="7">
         <v>600</v>
@@ -8497,13 +8482,13 @@
         <v>706312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M38" s="7">
         <v>1187</v>
@@ -8512,13 +8497,13 @@
         <v>1261983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8574,7 +8559,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -8598,7 +8583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DF9E74-6EED-4D1F-9F17-4CE8016B9386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3538E10-B9C3-4AD9-A08B-AF5BD38E94AF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8615,7 +8600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8743,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8758,7 +8743,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,7 +8764,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -8788,13 +8773,13 @@
         <v>6018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>565</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>566</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>567</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -8803,13 +8788,13 @@
         <v>6833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>570</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,7 +8812,7 @@
         <v>71</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -8839,13 +8824,13 @@
         <v>56201</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="M6" s="7">
         <v>204</v>
@@ -8854,13 +8839,13 @@
         <v>107306</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>56</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8928,13 +8913,13 @@
         <v>3614</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>454</v>
+        <v>571</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -8943,13 +8928,13 @@
         <v>8205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>580</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -8958,13 +8943,13 @@
         <v>11819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>582</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8979,13 +8964,13 @@
         <v>3015</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -8994,13 +8979,13 @@
         <v>14716</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -9009,13 +8994,13 @@
         <v>17730</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>591</v>
+        <v>407</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9030,13 +9015,13 @@
         <v>79685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="H10" s="7">
         <v>190</v>
@@ -9045,13 +9030,13 @@
         <v>118436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>587</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M10" s="7">
         <v>278</v>
@@ -9060,13 +9045,13 @@
         <v>198121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9134,13 +9119,13 @@
         <v>2014</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>39</v>
+        <v>594</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -9149,13 +9134,13 @@
         <v>3757</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>603</v>
+        <v>145</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -9164,13 +9149,13 @@
         <v>5771</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9185,13 +9170,13 @@
         <v>10380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>608</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -9200,13 +9185,13 @@
         <v>10715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -9218,10 +9203,10 @@
         <v>409</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9236,13 +9221,13 @@
         <v>65207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>617</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -9251,13 +9236,13 @@
         <v>80479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>620</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -9266,13 +9251,13 @@
         <v>145686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9346,7 +9331,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -9355,13 +9340,13 @@
         <v>2141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>616</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>39</v>
+        <v>617</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -9370,13 +9355,13 @@
         <v>2141</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9397,7 +9382,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>627</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -9406,13 +9391,13 @@
         <v>8671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -9421,13 +9406,13 @@
         <v>9399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9442,10 +9427,10 @@
         <v>78077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9457,13 +9442,13 @@
         <v>99643</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="M18" s="7">
         <v>348</v>
@@ -9472,13 +9457,13 @@
         <v>177720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9552,7 +9537,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9561,13 +9546,13 @@
         <v>484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -9576,13 +9561,13 @@
         <v>484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9597,13 +9582,13 @@
         <v>2323</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>320</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -9612,13 +9597,13 @@
         <v>6317</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>528</v>
+        <v>640</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -9627,13 +9612,13 @@
         <v>8640</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9648,13 +9633,13 @@
         <v>36008</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>652</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -9663,13 +9648,13 @@
         <v>58293</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -9678,13 +9663,13 @@
         <v>94301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,13 +9737,13 @@
         <v>1591</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>660</v>
+        <v>488</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -9767,13 +9752,13 @@
         <v>4519</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -9782,13 +9767,13 @@
         <v>6110</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>664</v>
+        <v>357</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>38</v>
+        <v>656</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9803,13 +9788,13 @@
         <v>3876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>37</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -9818,13 +9803,13 @@
         <v>7857</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>659</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -9833,13 +9818,13 @@
         <v>11733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>663</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9854,13 +9839,13 @@
         <v>57716</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="H26" s="7">
         <v>142</v>
@@ -9869,13 +9854,13 @@
         <v>57478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
@@ -9884,13 +9869,13 @@
         <v>115194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>679</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9958,13 +9943,13 @@
         <v>881</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>680</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -9973,13 +9958,13 @@
         <v>3902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -9988,13 +9973,13 @@
         <v>4783</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>279</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10009,13 +9994,13 @@
         <v>4567</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -10024,13 +10009,13 @@
         <v>9118</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -10039,13 +10024,13 @@
         <v>13684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10060,13 +10045,13 @@
         <v>125393</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="H30" s="7">
         <v>222</v>
@@ -10075,13 +10060,13 @@
         <v>245823</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>695</v>
+        <v>284</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="M30" s="7">
         <v>384</v>
@@ -10090,13 +10075,13 @@
         <v>371216</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>699</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10170,7 +10155,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>449</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10179,13 +10164,13 @@
         <v>637</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>701</v>
+        <v>117</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10194,13 +10179,13 @@
         <v>637</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>449</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,10 +10203,10 @@
         <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>684</v>
+        <v>202</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -10230,13 +10215,13 @@
         <v>10272</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>529</v>
+        <v>696</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -10245,13 +10230,13 @@
         <v>14699</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10269,10 +10254,10 @@
         <v>138</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="H34" s="7">
         <v>329</v>
@@ -10281,13 +10266,13 @@
         <v>211601</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M34" s="7">
         <v>557</v>
@@ -10296,13 +10281,13 @@
         <v>377101</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10370,13 +10355,13 @@
         <v>8100</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>717</v>
+        <v>170</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>718</v>
+        <v>539</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -10385,13 +10370,13 @@
         <v>23644</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>425</v>
+        <v>710</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M36" s="7">
         <v>53</v>
@@ -10400,13 +10385,13 @@
         <v>31744</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>47</v>
+        <v>712</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>721</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10421,13 +10406,13 @@
         <v>30131</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>579</v>
+        <v>714</v>
       </c>
       <c r="H37" s="7">
         <v>136</v>
@@ -10436,13 +10421,13 @@
         <v>73684</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="M37" s="7">
         <v>183</v>
@@ -10451,13 +10436,13 @@
         <v>103815</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>453</v>
+        <v>718</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>665</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10472,13 +10457,13 @@
         <v>658690</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H38" s="7">
         <v>1528</v>
@@ -10487,13 +10472,13 @@
         <v>927954</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="M38" s="7">
         <v>2496</v>
@@ -10502,13 +10487,13 @@
         <v>1586645</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>335</v>
+        <v>726</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10564,7 +10549,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4F8D81-A0AE-4C71-8570-7288C163FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC24A54-19EC-41DD-8E85-FDE6ECFFA991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C99D17C2-F01B-49F6-B86C-698A7BF6AA15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A03C21B-4786-4559-AEA8-E0835FCA2AAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="742">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,2107 +92,2146 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,9%</t>
+    <t>15,62%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
     <t>4,68%</t>
   </si>
   <si>
     <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
   </si>
   <si>
     <t>4,74%</t>
@@ -2637,7 +2676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B0EEB2-1BEB-40F5-844F-FADF67A2686A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF309D6B-5A59-401B-AF09-98F9DB86D012}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3466,7 +3505,7 @@
         <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,10 +3520,10 @@
         <v>53461</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -3496,10 +3535,10 @@
         <v>73254</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -3511,13 +3550,13 @@
         <v>126715</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3612,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3585,13 +3624,13 @@
         <v>868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3600,13 +3639,13 @@
         <v>1141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3615,13 +3654,13 @@
         <v>2009</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3675,13 @@
         <v>3413</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3651,13 +3690,13 @@
         <v>3205</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3666,7 +3705,7 @@
         <v>6618</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>103</v>
@@ -4084,7 +4123,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4138,13 @@
         <v>103318</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -4114,13 +4153,13 @@
         <v>114064</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>219</v>
@@ -4221,7 +4260,7 @@
         <v>76</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>146</v>
@@ -4257,10 +4296,10 @@
         <v>150</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -4269,13 +4308,13 @@
         <v>5756</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -4284,13 +4323,13 @@
         <v>10660</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4344,13 @@
         <v>105954</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H34" s="7">
         <v>135</v>
@@ -4320,13 +4359,13 @@
         <v>142850</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M34" s="7">
         <v>245</v>
@@ -4335,13 +4374,13 @@
         <v>248804</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,10 +4451,10 @@
         <v>144</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -4427,10 +4466,10 @@
         <v>147</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -4442,10 +4481,10 @@
         <v>132</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4499,13 @@
         <v>14609</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -4475,13 +4514,13 @@
         <v>15109</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -4490,13 +4529,13 @@
         <v>29718</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4550,13 @@
         <v>483217</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H38" s="7">
         <v>633</v>
@@ -4526,13 +4565,13 @@
         <v>647312</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M38" s="7">
         <v>1135</v>
@@ -4541,13 +4580,13 @@
         <v>1130529</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,7 +4642,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A0B75E-DE1C-42F0-98FE-B8402CBBF212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ECC770-734E-4D8A-9D05-A754E888BFB3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4644,7 +4683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4749,39 +4788,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,39 +4833,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,39 +4878,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,39 +4923,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4972,13 @@
         <v>3192</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4948,13 +4987,13 @@
         <v>6725</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4963,13 +5002,13 @@
         <v>9917</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +5023,13 @@
         <v>4140</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4999,13 +5038,13 @@
         <v>15146</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -5014,13 +5053,13 @@
         <v>19286</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5074,13 @@
         <v>71871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -5050,13 +5089,13 @@
         <v>80223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -5065,13 +5104,13 @@
         <v>152094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5178,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5154,13 +5193,13 @@
         <v>7624</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5169,13 +5208,13 @@
         <v>10611</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5229,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5205,13 +5244,13 @@
         <v>5438</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5220,13 +5259,13 @@
         <v>9621</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5280,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -5256,13 +5295,13 @@
         <v>66906</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -5271,13 +5310,13 @@
         <v>115478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5384,13 @@
         <v>3446</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5360,13 +5399,13 @@
         <v>4279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5375,13 +5414,13 @@
         <v>7726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5435,13 @@
         <v>4104</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5411,13 +5450,13 @@
         <v>15055</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5426,13 +5465,13 @@
         <v>19160</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5486,13 @@
         <v>100757</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -5462,13 +5501,13 @@
         <v>115133</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>202</v>
@@ -5477,13 +5516,13 @@
         <v>215892</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5578,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5551,13 +5590,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5566,13 +5605,13 @@
         <v>1984</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5581,10 +5620,10 @@
         <v>3018</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>272</v>
@@ -5617,13 +5656,13 @@
         <v>3099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5632,13 +5671,13 @@
         <v>6456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5692,13 @@
         <v>27220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5668,13 +5707,13 @@
         <v>44773</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5683,13 +5722,13 @@
         <v>71992</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5796,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5772,13 +5811,13 @@
         <v>5276</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5787,10 +5826,10 @@
         <v>6333</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>296</v>
@@ -5814,7 +5853,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5823,13 +5862,13 @@
         <v>5449</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5838,13 +5877,13 @@
         <v>7581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5898,13 @@
         <v>48567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -5874,13 +5913,13 @@
         <v>59488</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -5889,13 +5928,13 @@
         <v>108055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +6002,13 @@
         <v>4318</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5978,13 +6017,13 @@
         <v>4421</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -5993,13 +6032,13 @@
         <v>8739</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6053,13 @@
         <v>5984</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -6029,13 +6068,13 @@
         <v>14285</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6044,13 +6083,13 @@
         <v>20269</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6104,13 @@
         <v>101961</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H30" s="7">
         <v>112</v>
@@ -6080,13 +6119,13 @@
         <v>123255</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -6095,13 +6134,13 @@
         <v>225218</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6214,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6184,13 +6223,13 @@
         <v>5555</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6199,13 +6238,13 @@
         <v>5555</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6259,13 @@
         <v>5397</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -6235,13 +6274,13 @@
         <v>12206</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -6250,13 +6289,13 @@
         <v>17603</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6310,13 @@
         <v>115355</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H34" s="7">
         <v>135</v>
@@ -6286,13 +6325,13 @@
         <v>146657</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M34" s="7">
         <v>236</v>
@@ -6301,13 +6340,13 @@
         <v>262012</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6414,13 @@
         <v>16035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H36" s="7">
         <v>32</v>
@@ -6390,13 +6429,13 @@
         <v>35863</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -6405,13 +6444,13 @@
         <v>51898</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6465,13 @@
         <v>29297</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -6441,13 +6480,13 @@
         <v>70678</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M37" s="7">
         <v>91</v>
@@ -6456,13 +6495,13 @@
         <v>99975</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6516,13 @@
         <v>514305</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H38" s="7">
         <v>597</v>
@@ -6492,13 +6531,13 @@
         <v>636434</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M38" s="7">
         <v>1061</v>
@@ -6507,13 +6546,13 @@
         <v>1150739</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,7 +6608,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6593,7 +6632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905615A3-6A0A-4BF8-99ED-D46347486E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C05BA7-EA23-403D-80DA-FA1C257A5FC8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6610,7 +6649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6717,13 +6756,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6738,7 +6777,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6747,13 +6786,13 @@
         <v>1839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6807,13 @@
         <v>5034</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6783,13 +6822,13 @@
         <v>8074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6798,13 +6837,13 @@
         <v>13108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,13 +6858,13 @@
         <v>33060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -6834,28 +6873,28 @@
         <v>40279</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
       </c>
       <c r="N6" s="7">
-        <v>73340</v>
+        <v>73339</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,7 +6936,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -6923,13 +6962,13 @@
         <v>1020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6938,13 +6977,13 @@
         <v>2694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6953,13 +6992,13 @@
         <v>3714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +7013,13 @@
         <v>4464</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>408</v>
+        <v>177</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6989,13 +7028,13 @@
         <v>10023</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>411</v>
+        <v>168</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -7004,13 +7043,13 @@
         <v>14488</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7064,13 @@
         <v>81810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -7040,13 +7079,13 @@
         <v>102511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>170</v>
@@ -7055,13 +7094,13 @@
         <v>184321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7174,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7144,13 +7183,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7159,13 +7198,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7219,13 @@
         <v>3612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7201,7 +7240,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7210,13 +7249,13 @@
         <v>3612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7270,13 @@
         <v>59934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -7246,13 +7285,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -7261,13 +7300,13 @@
         <v>135354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,7 +7380,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>445</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7350,13 +7389,13 @@
         <v>2571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7365,13 +7404,13 @@
         <v>4180</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,10 +7425,10 @@
         <v>5440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>451</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>452</v>
@@ -7401,13 +7440,13 @@
         <v>4394</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7416,10 +7455,10 @@
         <v>9833</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>457</v>
@@ -7443,7 +7482,7 @@
         <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>236</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -7529,7 +7568,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7547,7 +7586,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7571,13 +7610,13 @@
         <v>2262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>468</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7631,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7607,10 +7646,10 @@
         <v>4436</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>472</v>
+        <v>65</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>473</v>
@@ -7625,10 +7664,10 @@
         <v>474</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>169</v>
+        <v>475</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,10 +7682,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7658,13 +7697,13 @@
         <v>43834</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -7673,13 +7712,13 @@
         <v>85115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,13 +7786,13 @@
         <v>1651</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>484</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7765,10 +7804,10 @@
         <v>485</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>295</v>
+        <v>486</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7777,13 +7816,13 @@
         <v>5364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,13 +7837,13 @@
         <v>3377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7813,13 +7852,13 @@
         <v>6889</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7828,13 +7867,13 @@
         <v>10266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7888,13 @@
         <v>43418</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -7864,13 +7903,13 @@
         <v>56786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>503</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -7879,13 +7918,13 @@
         <v>100204</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,13 +7992,13 @@
         <v>2803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>509</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7968,13 +8007,13 @@
         <v>3813</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7983,13 +8022,13 @@
         <v>6616</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>510</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8004,13 +8043,13 @@
         <v>2860</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8019,13 +8058,13 @@
         <v>7176</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>517</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -8034,13 +8073,13 @@
         <v>10036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>340</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>386</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8094,13 @@
         <v>106522</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>521</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -8070,13 +8109,13 @@
         <v>136636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>327</v>
+        <v>524</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>517</v>
+        <v>29</v>
       </c>
       <c r="M30" s="7">
         <v>219</v>
@@ -8085,13 +8124,13 @@
         <v>243158</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,7 +8204,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8180,7 +8219,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>248</v>
+        <v>529</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8195,7 +8234,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8249,13 @@
         <v>2186</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>531</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -8225,13 +8264,13 @@
         <v>10059</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -8240,13 +8279,13 @@
         <v>12245</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>527</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>529</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,10 +8300,10 @@
         <v>131982</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8276,13 +8315,13 @@
         <v>166238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M34" s="7">
         <v>273</v>
@@ -8291,13 +8330,13 @@
         <v>298220</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,13 +8404,13 @@
         <v>7885</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -8380,13 +8419,13 @@
         <v>20568</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -8395,13 +8434,13 @@
         <v>28452</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>60</v>
+        <v>528</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>41</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,13 +8455,13 @@
         <v>27772</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>274</v>
+        <v>552</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -8431,13 +8470,13 @@
         <v>51051</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>554</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>544</v>
+        <v>145</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -8446,13 +8485,13 @@
         <v>78823</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>123</v>
+        <v>556</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>546</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8467,13 +8506,13 @@
         <v>555671</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>550</v>
+        <v>53</v>
       </c>
       <c r="H38" s="7">
         <v>600</v>
@@ -8482,13 +8521,13 @@
         <v>706312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="M38" s="7">
         <v>1187</v>
@@ -8497,13 +8536,13 @@
         <v>1261983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>554</v>
+        <v>400</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8559,7 +8598,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -8583,7 +8622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3538E10-B9C3-4AD9-A08B-AF5BD38E94AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B04F98-2AB3-4AF7-AF3E-2FA35A64441F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8600,7 +8639,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8728,7 +8767,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8743,7 +8782,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,7 +8803,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -8773,13 +8812,13 @@
         <v>6018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>569</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>570</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>390</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -8788,13 +8827,13 @@
         <v>6833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8812,7 +8851,7 @@
         <v>71</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -8824,13 +8863,13 @@
         <v>56201</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="M6" s="7">
         <v>204</v>
@@ -8839,13 +8878,13 @@
         <v>107306</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>569</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8913,13 +8952,13 @@
         <v>3614</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -8928,13 +8967,13 @@
         <v>8205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -8943,13 +8982,13 @@
         <v>11819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8964,13 +9003,13 @@
         <v>3015</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>578</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -8979,13 +9018,13 @@
         <v>14716</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -8994,13 +9033,13 @@
         <v>17730</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9015,13 +9054,13 @@
         <v>79685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="H10" s="7">
         <v>190</v>
@@ -9030,13 +9069,13 @@
         <v>118436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="M10" s="7">
         <v>278</v>
@@ -9045,13 +9084,13 @@
         <v>198121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9119,13 +9158,13 @@
         <v>2014</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>594</v>
+        <v>340</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>595</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -9134,13 +9173,13 @@
         <v>3757</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>145</v>
+        <v>602</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>596</v>
+        <v>47</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -9149,13 +9188,13 @@
         <v>5771</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>600</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9170,13 +9209,13 @@
         <v>10380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>606</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -9185,13 +9224,13 @@
         <v>10715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -9200,13 +9239,13 @@
         <v>21095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>409</v>
+        <v>612</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9221,13 +9260,13 @@
         <v>65207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>617</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -9236,13 +9275,13 @@
         <v>80479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -9251,13 +9290,13 @@
         <v>145686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9331,7 +9370,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -9340,13 +9379,13 @@
         <v>2141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>616</v>
+        <v>491</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>617</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -9355,13 +9394,13 @@
         <v>2141</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9382,7 +9421,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -9391,13 +9430,13 @@
         <v>8671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -9406,13 +9445,13 @@
         <v>9399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>625</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9427,10 +9466,10 @@
         <v>78077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9442,13 +9481,13 @@
         <v>99643</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M18" s="7">
         <v>348</v>
@@ -9457,13 +9496,13 @@
         <v>177720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9519,7 +9558,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9537,7 +9576,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>640</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9546,13 +9585,13 @@
         <v>484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>634</v>
+        <v>39</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -9561,7 +9600,7 @@
         <v>484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
@@ -9582,13 +9621,13 @@
         <v>2323</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -9597,13 +9636,13 @@
         <v>6317</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -9612,13 +9651,13 @@
         <v>8640</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9633,10 +9672,10 @@
         <v>36008</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>644</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>67</v>
@@ -9648,13 +9687,13 @@
         <v>58293</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -9663,13 +9702,13 @@
         <v>94301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9737,13 +9776,13 @@
         <v>1591</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -9752,13 +9791,13 @@
         <v>4519</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -9767,13 +9806,13 @@
         <v>6110</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>357</v>
+        <v>661</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9788,13 +9827,13 @@
         <v>3876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>37</v>
+        <v>665</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -9803,13 +9842,13 @@
         <v>7857</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -9818,13 +9857,13 @@
         <v>11733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9839,13 +9878,13 @@
         <v>57716</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="H26" s="7">
         <v>142</v>
@@ -9854,13 +9893,13 @@
         <v>57478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
@@ -9869,13 +9908,13 @@
         <v>115194</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>68</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9943,13 +9982,13 @@
         <v>881</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>681</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -9958,13 +9997,13 @@
         <v>3902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -9973,13 +10012,13 @@
         <v>4783</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9994,13 +10033,13 @@
         <v>4567</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -10009,13 +10048,13 @@
         <v>9118</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -10024,13 +10063,13 @@
         <v>13684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>492</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10045,13 +10084,13 @@
         <v>125393</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="H30" s="7">
         <v>222</v>
@@ -10060,13 +10099,13 @@
         <v>245823</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="M30" s="7">
         <v>384</v>
@@ -10075,13 +10114,13 @@
         <v>371216</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>537</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10155,7 +10194,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>128</v>
+        <v>702</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10164,7 +10203,7 @@
         <v>637</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
@@ -10179,13 +10218,13 @@
         <v>637</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>128</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10203,10 +10242,10 @@
         <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>202</v>
+        <v>705</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -10215,13 +10254,13 @@
         <v>10272</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -10230,13 +10269,13 @@
         <v>14699</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>699</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>700</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10251,13 +10290,13 @@
         <v>165500</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="H34" s="7">
         <v>329</v>
@@ -10266,13 +10305,13 @@
         <v>211601</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="M34" s="7">
         <v>557</v>
@@ -10281,13 +10320,13 @@
         <v>377101</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10355,13 +10394,13 @@
         <v>8100</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>719</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>539</v>
+        <v>720</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -10370,13 +10409,13 @@
         <v>23644</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>53</v>
@@ -10385,13 +10424,13 @@
         <v>31744</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10406,13 +10445,13 @@
         <v>30131</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>713</v>
+        <v>388</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>726</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="H37" s="7">
         <v>136</v>
@@ -10421,13 +10460,13 @@
         <v>73684</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>79</v>
+        <v>728</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="M37" s="7">
         <v>183</v>
@@ -10436,13 +10475,13 @@
         <v>103815</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>717</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10457,13 +10496,13 @@
         <v>658690</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="H38" s="7">
         <v>1528</v>
@@ -10472,13 +10511,13 @@
         <v>927954</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="M38" s="7">
         <v>2496</v>
@@ -10487,13 +10526,13 @@
         <v>1586645</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10549,7 +10588,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC24A54-19EC-41DD-8E85-FDE6ECFFA991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84A7CC8-C8D1-48D1-AEDA-12CBED091790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A03C21B-4786-4559-AEA8-E0835FCA2AAC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C1D70209-E6BF-4411-BE58-2AD88851E68D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="734">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,22 +92,22 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>15,62%</t>
+    <t>16,21%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>13,74%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -116,7 +116,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>84,38%</t>
+    <t>83,79%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,16 +125,16 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>86,26%</t>
+    <t>85,48%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,2122 +149,2098 @@
     <t>4,54%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
 </sst>
 </file>
@@ -2676,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF309D6B-5A59-401B-AF09-98F9DB86D012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7D128-1635-4F79-92FC-2ECE5622E078}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3505,7 +3481,7 @@
         <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,10 +3496,10 @@
         <v>53461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -3535,10 +3511,10 @@
         <v>73254</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -3550,13 +3526,13 @@
         <v>126715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3588,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3624,13 +3600,13 @@
         <v>868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3639,13 +3615,13 @@
         <v>1141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3654,13 +3630,13 @@
         <v>2009</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,10 +3651,10 @@
         <v>3413</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>98</v>
@@ -4123,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4114,13 @@
         <v>103318</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H30" s="7">
         <v>114</v>
@@ -4153,13 +4129,13 @@
         <v>114064</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M30" s="7">
         <v>219</v>
@@ -4275,10 +4251,10 @@
         <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,10 +4269,10 @@
         <v>4905</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>151</v>
@@ -4454,7 +4430,7 @@
         <v>167</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -4466,10 +4442,10 @@
         <v>147</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -4481,10 +4457,10 @@
         <v>132</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4475,13 @@
         <v>14609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -4514,13 +4490,13 @@
         <v>15109</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -4529,13 +4505,13 @@
         <v>29718</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4526,13 @@
         <v>483217</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H38" s="7">
         <v>633</v>
@@ -4565,13 +4541,13 @@
         <v>647312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M38" s="7">
         <v>1135</v>
@@ -4580,13 +4556,13 @@
         <v>1130529</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,7 +4618,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ECC770-734E-4D8A-9D05-A754E888BFB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A99A67-9F03-4654-9C97-6C835B1A12AB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4683,7 +4659,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4788,39 +4764,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,39 +4809,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,39 +4854,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,39 +4899,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4948,13 @@
         <v>3192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4987,13 +4963,13 @@
         <v>6725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5002,13 +4978,13 @@
         <v>9917</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +4999,13 @@
         <v>4140</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -5038,13 +5014,13 @@
         <v>15146</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -5053,13 +5029,13 @@
         <v>19286</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5050,13 @@
         <v>71871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -5089,13 +5065,13 @@
         <v>80223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -5104,13 +5080,13 @@
         <v>152094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,10 +5154,10 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>218</v>
@@ -5247,10 +5223,10 @@
         <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5259,13 +5235,13 @@
         <v>9621</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5256,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -5295,13 +5271,13 @@
         <v>66906</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -5310,13 +5286,13 @@
         <v>115478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5360,13 @@
         <v>3446</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5399,10 +5375,10 @@
         <v>4279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>246</v>
@@ -5414,7 +5390,7 @@
         <v>7726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>247</v>
@@ -5438,10 +5414,10 @@
         <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5450,7 +5426,7 @@
         <v>15055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>252</v>
@@ -5578,7 +5554,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5644,10 +5620,10 @@
         <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5656,13 +5632,13 @@
         <v>3099</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5671,13 +5647,13 @@
         <v>6456</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5668,13 @@
         <v>27220</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5707,13 +5683,13 @@
         <v>44773</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5722,13 +5698,13 @@
         <v>71992</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5772,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5811,13 +5787,13 @@
         <v>5276</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5829,10 +5805,10 @@
         <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5823,13 @@
         <v>2132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5862,13 +5838,13 @@
         <v>5449</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5877,13 +5853,13 @@
         <v>7581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5874,13 @@
         <v>48567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -5913,13 +5889,13 @@
         <v>59488</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -5928,13 +5904,13 @@
         <v>108055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,10 +5981,10 @@
         <v>313</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6017,13 +5993,13 @@
         <v>4421</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -6032,13 +6008,13 @@
         <v>8739</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6029,13 @@
         <v>5984</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -6068,13 +6044,13 @@
         <v>14285</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6083,13 +6059,13 @@
         <v>20269</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6080,13 @@
         <v>101961</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H30" s="7">
         <v>112</v>
@@ -6119,13 +6095,13 @@
         <v>123255</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -6134,13 +6110,13 @@
         <v>225218</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6190,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6223,13 +6199,13 @@
         <v>5555</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6238,7 +6214,7 @@
         <v>5555</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>340</v>
@@ -6262,10 +6238,10 @@
         <v>342</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -6274,10 +6250,10 @@
         <v>12206</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>346</v>
@@ -6346,7 +6322,7 @@
         <v>357</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,10 +6390,10 @@
         <v>16035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>359</v>
+        <v>122</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>360</v>
@@ -6447,10 +6423,10 @@
         <v>268</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,7 +6459,7 @@
         <v>368</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>369</v>
@@ -6522,7 +6498,7 @@
         <v>374</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="H38" s="7">
         <v>597</v>
@@ -6531,13 +6507,13 @@
         <v>636434</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="M38" s="7">
         <v>1061</v>
@@ -6546,13 +6522,13 @@
         <v>1150739</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,7 +6584,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6632,7 +6608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C05BA7-EA23-403D-80DA-FA1C257A5FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20338129-63CE-4A15-B19F-6BA1AD467895}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6649,7 +6625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6756,13 +6732,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6777,7 +6753,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6786,13 +6762,13 @@
         <v>1839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6783,13 @@
         <v>5034</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6822,13 +6798,13 @@
         <v>8074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6837,13 +6813,13 @@
         <v>13108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6834,13 @@
         <v>33060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -6873,28 +6849,28 @@
         <v>40279</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
       </c>
       <c r="N6" s="7">
-        <v>73339</v>
+        <v>73340</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,7 +6912,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -6962,13 +6938,13 @@
         <v>1020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6977,13 +6953,13 @@
         <v>2694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6992,13 +6968,13 @@
         <v>3714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +6989,13 @@
         <v>4464</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -7028,13 +7004,13 @@
         <v>10023</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -7043,13 +7019,13 @@
         <v>14488</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>416</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7040,13 @@
         <v>81810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -7079,13 +7055,13 @@
         <v>102511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M10" s="7">
         <v>170</v>
@@ -7094,13 +7070,13 @@
         <v>184321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,7 +7150,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7183,13 +7159,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7198,13 +7174,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7195,13 @@
         <v>3612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7240,7 +7216,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7249,13 +7225,13 @@
         <v>3612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,13 +7246,13 @@
         <v>59934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -7285,13 +7261,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -7300,13 +7276,13 @@
         <v>135354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,7 +7356,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>445</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7389,13 +7365,13 @@
         <v>2571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>447</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7404,7 +7380,7 @@
         <v>4180</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>449</v>
@@ -7428,7 +7404,7 @@
         <v>451</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>452</v>
@@ -7440,13 +7416,13 @@
         <v>4394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7455,10 +7431,10 @@
         <v>9833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>456</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>457</v>
@@ -7482,7 +7458,7 @@
         <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -7568,7 +7544,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7649,10 +7625,10 @@
         <v>472</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>65</v>
+        <v>473</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7661,13 +7637,13 @@
         <v>5235</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,10 +7658,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7697,13 +7673,13 @@
         <v>43834</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -7715,10 +7691,10 @@
         <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7762,13 @@
         <v>1651</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>486</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7801,13 +7777,13 @@
         <v>3713</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7816,13 +7792,13 @@
         <v>5364</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7813,13 @@
         <v>3377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7852,13 +7828,13 @@
         <v>6889</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>313</v>
+        <v>494</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7867,13 +7843,13 @@
         <v>10266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>497</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7894,13 @@
         <v>100204</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7992,13 +7968,13 @@
         <v>2803</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>508</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>509</v>
+        <v>292</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -8007,13 +7983,13 @@
         <v>3813</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8022,13 +7998,13 @@
         <v>6616</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,13 +8019,13 @@
         <v>2860</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8058,13 +8034,13 @@
         <v>7176</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>517</v>
+        <v>368</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -8073,13 +8049,13 @@
         <v>10036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>519</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8070,13 @@
         <v>106522</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -8109,13 +8085,13 @@
         <v>136636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>524</v>
+        <v>331</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="M30" s="7">
         <v>219</v>
@@ -8124,13 +8100,13 @@
         <v>243158</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,7 +8180,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8219,7 +8195,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8234,7 +8210,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8225,13 @@
         <v>2186</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -8264,13 +8240,13 @@
         <v>10059</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -8279,13 +8255,13 @@
         <v>12245</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>223</v>
+        <v>531</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,10 +8276,10 @@
         <v>131982</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8315,13 +8291,13 @@
         <v>166238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M34" s="7">
         <v>273</v>
@@ -8330,13 +8306,13 @@
         <v>298220</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>543</v>
+        <v>139</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,13 +8380,13 @@
         <v>7885</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>545</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -8419,13 +8395,13 @@
         <v>20568</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -8434,13 +8410,13 @@
         <v>28452</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>385</v>
+        <v>168</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>528</v>
+        <v>60</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>550</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,13 +8431,13 @@
         <v>27772</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -8470,13 +8446,13 @@
         <v>51051</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>145</v>
+        <v>547</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -8485,13 +8461,13 @@
         <v>78823</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>145</v>
+        <v>550</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8506,13 +8482,13 @@
         <v>555671</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>53</v>
+        <v>554</v>
       </c>
       <c r="H38" s="7">
         <v>600</v>
@@ -8521,13 +8497,13 @@
         <v>706312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M38" s="7">
         <v>1187</v>
@@ -8536,13 +8512,13 @@
         <v>1261983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8598,7 +8574,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -8622,7 +8598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B04F98-2AB3-4AF7-AF3E-2FA35A64441F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3108E302-10AF-4AAC-A219-11EFA88F027B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8639,7 +8615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8767,7 +8743,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8782,7 +8758,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8803,7 +8779,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -8812,13 +8788,13 @@
         <v>6018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>567</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -8827,13 +8803,13 @@
         <v>6833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>493</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,7 +8827,7 @@
         <v>71</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -8863,13 +8839,13 @@
         <v>56201</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="M6" s="7">
         <v>204</v>
@@ -8878,13 +8854,13 @@
         <v>107306</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8952,13 +8928,13 @@
         <v>3614</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>580</v>
+        <v>454</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -8967,13 +8943,13 @@
         <v>8205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -8985,10 +8961,10 @@
         <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>582</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9003,13 +8979,13 @@
         <v>3015</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -9036,10 +9012,10 @@
         <v>590</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>411</v>
+        <v>591</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9054,13 +9030,13 @@
         <v>79685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H10" s="7">
         <v>190</v>
@@ -9069,7 +9045,7 @@
         <v>118436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>595</v>
+        <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>596</v>
@@ -9161,10 +9137,10 @@
         <v>601</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>602</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -9173,13 +9149,13 @@
         <v>3757</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>604</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -9188,13 +9164,13 @@
         <v>5771</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9209,13 +9185,13 @@
         <v>10380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -9224,13 +9200,13 @@
         <v>10715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -9239,7 +9215,7 @@
         <v>21095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>612</v>
+        <v>409</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>613</v>
@@ -9296,7 +9272,7 @@
         <v>622</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9370,7 +9346,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -9379,13 +9355,13 @@
         <v>2141</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -9394,13 +9370,13 @@
         <v>2141</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>627</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>601</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9421,7 +9397,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>488</v>
+        <v>627</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -9448,10 +9424,10 @@
         <v>631</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9466,10 +9442,10 @@
         <v>78077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9481,13 +9457,13 @@
         <v>99643</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M18" s="7">
         <v>348</v>
@@ -9496,13 +9472,13 @@
         <v>177720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>639</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9558,7 +9534,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9576,7 +9552,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>640</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -9585,7 +9561,7 @@
         <v>484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>39</v>
+        <v>640</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -9606,7 +9582,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9624,7 +9600,7 @@
         <v>643</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>320</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>644</v>
@@ -9639,10 +9615,10 @@
         <v>645</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -9651,7 +9627,7 @@
         <v>8640</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>648</v>
@@ -9672,13 +9648,13 @@
         <v>36008</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>650</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>652</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -9687,13 +9663,13 @@
         <v>58293</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -9702,13 +9678,13 @@
         <v>94301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9776,13 +9752,13 @@
         <v>1591</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -9791,13 +9767,13 @@
         <v>4519</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -9806,13 +9782,13 @@
         <v>6110</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>662</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9827,13 +9803,13 @@
         <v>3876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>665</v>
+        <v>471</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -9842,7 +9818,7 @@
         <v>7857</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>666</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>667</v>
@@ -9860,10 +9836,10 @@
         <v>669</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9878,13 +9854,13 @@
         <v>57716</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>674</v>
       </c>
       <c r="H26" s="7">
         <v>142</v>
@@ -9893,13 +9869,13 @@
         <v>57478</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
@@ -9908,13 +9884,13 @@
         <v>115194</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9982,13 +9958,13 @@
         <v>881</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -9997,13 +9973,13 @@
         <v>3902</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -10012,13 +9988,13 @@
         <v>4783</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>686</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>687</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10033,13 +10009,13 @@
         <v>4567</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -10048,13 +10024,13 @@
         <v>9118</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -10063,13 +10039,13 @@
         <v>13684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>693</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10084,13 +10060,13 @@
         <v>125393</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H30" s="7">
         <v>222</v>
@@ -10099,13 +10075,13 @@
         <v>245823</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>285</v>
+        <v>695</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M30" s="7">
         <v>384</v>
@@ -10114,13 +10090,13 @@
         <v>371216</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10194,7 +10170,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>702</v>
+        <v>449</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10203,13 +10179,13 @@
         <v>637</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>117</v>
+        <v>701</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10218,13 +10194,13 @@
         <v>637</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>702</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10242,10 +10218,10 @@
         <v>124</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -10254,13 +10230,13 @@
         <v>10272</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>708</v>
+        <v>529</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -10269,13 +10245,13 @@
         <v>14699</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>100</v>
+        <v>707</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>450</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10290,13 +10266,13 @@
         <v>165500</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H34" s="7">
         <v>329</v>
@@ -10305,13 +10281,13 @@
         <v>211601</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>715</v>
       </c>
       <c r="M34" s="7">
         <v>557</v>
@@ -10320,13 +10296,13 @@
         <v>377101</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10394,13 +10370,13 @@
         <v>8100</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -10409,10 +10385,10 @@
         <v>23644</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>722</v>
+        <v>425</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>266</v>
@@ -10424,13 +10400,13 @@
         <v>31744</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>724</v>
+        <v>47</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10445,13 +10421,13 @@
         <v>30131</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>388</v>
+        <v>722</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>726</v>
+        <v>301</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>727</v>
+        <v>579</v>
       </c>
       <c r="H37" s="7">
         <v>136</v>
@@ -10460,13 +10436,13 @@
         <v>73684</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>728</v>
+        <v>146</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="M37" s="7">
         <v>183</v>
@@ -10475,13 +10451,13 @@
         <v>103815</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>725</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>731</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10496,13 +10472,13 @@
         <v>658690</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="H38" s="7">
         <v>1528</v>
@@ -10511,13 +10487,13 @@
         <v>927954</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="M38" s="7">
         <v>2496</v>
@@ -10526,13 +10502,13 @@
         <v>1586645</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>739</v>
+        <v>335</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10588,7 +10564,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84A7CC8-C8D1-48D1-AEDA-12CBED091790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A41A86E-534C-44D7-BA3F-EE6073CFA110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C1D70209-E6BF-4411-BE58-2AD88851E68D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5155F978-816E-432B-8CB8-2BE5E11D4E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="752">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -617,7 +617,55 @@
     <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>4,03%</t>
@@ -767,1480 +815,1486 @@
     <t>90,41%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7D128-1635-4F79-92FC-2ECE5622E078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4F1EA2-16ED-4D01-8E84-A5B8041FED7B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4642,7 +4696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A99A67-9F03-4654-9C97-6C835B1A12AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C8C5E5-ED19-4C43-A253-5C2B74011F69}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4762,41 +4816,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2201</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2201</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,43 +4865,49 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>986</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7610</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8595</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,43 +4916,49 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43295</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="I6" s="7">
+        <v>39083</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="N6" s="7">
+        <v>82379</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,43 +4967,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +5026,13 @@
         <v>3192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4963,13 +5041,13 @@
         <v>6725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4978,13 +5056,13 @@
         <v>9917</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5077,13 @@
         <v>4140</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>176</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -5014,13 +5092,13 @@
         <v>15146</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -5029,13 +5107,13 @@
         <v>19286</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5131,7 @@
         <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>181</v>
@@ -5065,13 +5143,13 @@
         <v>80223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -5080,13 +5158,13 @@
         <v>152094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5232,13 @@
         <v>2988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5169,13 +5247,13 @@
         <v>7624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -5184,13 +5262,13 @@
         <v>10611</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5283,13 @@
         <v>4182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5220,13 +5298,13 @@
         <v>5438</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5235,13 +5313,13 @@
         <v>9621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5334,13 @@
         <v>48572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -5271,13 +5349,13 @@
         <v>66906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -5286,13 +5364,13 @@
         <v>115478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,43 +5438,43 @@
         <v>3446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>4279</v>
+        <v>2078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>7726</v>
+        <v>5525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +5483,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>4104</v>
+        <v>3119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>15055</v>
+        <v>7445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>19160</v>
+        <v>10564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,49 +5534,49 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>100757</v>
+        <v>57463</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="I18" s="7">
-        <v>115133</v>
+        <v>76050</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="N18" s="7">
-        <v>215892</v>
+        <v>133513</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,10 +5585,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -5522,10 +5600,10 @@
         <v>32</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -5537,10 +5615,10 @@
         <v>32</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -5566,13 +5644,13 @@
         <v>1035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5581,13 +5659,13 @@
         <v>1984</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5596,13 +5674,13 @@
         <v>3018</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5695,13 @@
         <v>3358</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5632,13 +5710,13 @@
         <v>3099</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5647,13 +5725,13 @@
         <v>6456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5746,13 @@
         <v>27220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -5683,13 +5761,13 @@
         <v>44773</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5698,13 +5776,13 @@
         <v>71992</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5850,13 @@
         <v>1057</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5787,13 +5865,13 @@
         <v>5276</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5802,13 +5880,13 @@
         <v>6333</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5901,13 @@
         <v>2132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5838,13 +5916,13 @@
         <v>5449</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5853,13 +5931,13 @@
         <v>7581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5952,13 @@
         <v>48567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -5889,13 +5967,13 @@
         <v>59488</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -5904,13 +5982,13 @@
         <v>108055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +6056,13 @@
         <v>4318</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5993,13 +6071,13 @@
         <v>4421</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -6008,13 +6086,13 @@
         <v>8739</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6107,13 @@
         <v>5984</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -6044,13 +6122,13 @@
         <v>14285</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6059,13 +6137,13 @@
         <v>20269</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6158,13 @@
         <v>101961</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H30" s="7">
         <v>112</v>
@@ -6095,13 +6173,13 @@
         <v>123255</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="M30" s="7">
         <v>203</v>
@@ -6110,13 +6188,13 @@
         <v>225218</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6268,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6199,13 +6277,13 @@
         <v>5555</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6214,13 +6292,13 @@
         <v>5555</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6313,13 @@
         <v>5397</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -6250,13 +6328,13 @@
         <v>12206</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -6265,13 +6343,13 @@
         <v>17603</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6364,13 @@
         <v>115355</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H34" s="7">
         <v>135</v>
@@ -6301,13 +6379,13 @@
         <v>146657</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M34" s="7">
         <v>236</v>
@@ -6316,13 +6394,13 @@
         <v>262012</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6468,13 @@
         <v>16035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="H36" s="7">
         <v>32</v>
@@ -6405,13 +6483,13 @@
         <v>35863</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="M36" s="7">
         <v>46</v>
@@ -6420,13 +6498,13 @@
         <v>51898</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>91</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6519,13 @@
         <v>29297</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="H37" s="7">
         <v>65</v>
@@ -6456,13 +6534,13 @@
         <v>70678</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="M37" s="7">
         <v>91</v>
@@ -6471,13 +6549,13 @@
         <v>99975</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,10 +6570,10 @@
         <v>514305</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>182</v>
@@ -6507,13 +6585,13 @@
         <v>636434</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="M38" s="7">
         <v>1061</v>
@@ -6522,13 +6600,13 @@
         <v>1150739</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,7 +6686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20338129-63CE-4A15-B19F-6BA1AD467895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1855D3F3-4F72-4C1D-B47D-0F8893B8D50B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6625,7 +6703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6732,13 +6810,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6753,7 +6831,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6768,7 +6846,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6861,13 @@
         <v>5034</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6798,13 +6876,13 @@
         <v>8074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6813,13 +6891,13 @@
         <v>13108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6912,13 @@
         <v>33060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -6849,13 +6927,13 @@
         <v>40279</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -6864,13 +6942,13 @@
         <v>73340</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,7 +7016,7 @@
         <v>1020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -6953,13 +7031,13 @@
         <v>2694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6968,13 +7046,13 @@
         <v>3714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +7067,13 @@
         <v>4464</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -7004,13 +7082,13 @@
         <v>10023</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -7019,13 +7097,13 @@
         <v>14488</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7118,13 @@
         <v>81810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -7055,13 +7133,13 @@
         <v>102511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="M10" s="7">
         <v>170</v>
@@ -7070,13 +7148,13 @@
         <v>184321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,7 +7228,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7159,13 +7237,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7174,13 +7252,13 @@
         <v>4477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7273,13 @@
         <v>3612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7216,7 +7294,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7228,10 +7306,10 @@
         <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7324,13 @@
         <v>59934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -7261,13 +7339,13 @@
         <v>75420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -7276,13 +7354,13 @@
         <v>135354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,7 +7434,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7365,13 +7443,13 @@
         <v>2571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7380,13 +7458,13 @@
         <v>4180</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,13 +7479,13 @@
         <v>5440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7416,13 +7494,13 @@
         <v>4394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7431,13 +7509,13 @@
         <v>9833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7530,13 @@
         <v>57663</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -7467,13 +7545,13 @@
         <v>84609</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -7482,13 +7560,13 @@
         <v>142272</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,7 +7640,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7571,13 +7649,13 @@
         <v>2262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7586,13 +7664,13 @@
         <v>2262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,13 +7685,13 @@
         <v>799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -7622,13 +7700,13 @@
         <v>4436</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -7637,13 +7715,13 @@
         <v>5235</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,10 +7736,10 @@
         <v>41281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7673,13 +7751,13 @@
         <v>43834</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -7688,13 +7766,13 @@
         <v>85115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7840,13 @@
         <v>1651</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7777,13 +7855,13 @@
         <v>3713</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7795,10 +7873,10 @@
         <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7891,13 @@
         <v>3377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7828,13 +7906,13 @@
         <v>6889</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7843,13 +7921,13 @@
         <v>10266</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,13 +7942,13 @@
         <v>43418</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -7879,13 +7957,13 @@
         <v>56786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -7894,13 +7972,13 @@
         <v>100204</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,13 +8046,13 @@
         <v>2803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7983,13 +8061,13 @@
         <v>3813</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7998,13 +8076,13 @@
         <v>6616</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>245</v>
+        <v>523</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,13 +8097,13 @@
         <v>2860</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8034,13 +8112,13 @@
         <v>7176</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -8049,13 +8127,13 @@
         <v>10036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8148,13 @@
         <v>106522</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -8085,13 +8163,13 @@
         <v>136636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="M30" s="7">
         <v>219</v>
@@ -8100,13 +8178,13 @@
         <v>243158</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,7 +8258,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8195,7 +8273,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8210,7 +8288,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8303,13 @@
         <v>2186</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -8240,13 +8318,13 @@
         <v>10059</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -8255,10 +8333,10 @@
         <v>12245</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>126</v>
@@ -8276,10 +8354,10 @@
         <v>131982</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -8291,13 +8369,13 @@
         <v>166238</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="M34" s="7">
         <v>273</v>
@@ -8306,13 +8384,13 @@
         <v>298220</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>139</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8380,13 +8458,13 @@
         <v>7885</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>553</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -8395,13 +8473,13 @@
         <v>20568</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -8431,13 +8509,13 @@
         <v>27772</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -8446,13 +8524,13 @@
         <v>51051</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -8461,13 +8539,13 @@
         <v>78823</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8482,13 +8560,13 @@
         <v>555671</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="H38" s="7">
         <v>600</v>
@@ -8497,13 +8575,13 @@
         <v>706312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="M38" s="7">
         <v>1187</v>
@@ -8512,13 +8590,13 @@
         <v>1261983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8598,7 +8676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3108E302-10AF-4AAC-A219-11EFA88F027B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEFC9EE-B27B-4C59-A68F-9123CDECB1F2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8615,7 +8693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8743,7 +8821,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8758,7 +8836,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,46 +8848,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>578</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>6018</v>
+        <v>6059</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>566</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>6833</v>
+        <v>6951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>569</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,13 +8899,13 @@
         <v>82</v>
       </c>
       <c r="D6" s="7">
-        <v>51105</v>
+        <v>55009</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>71</v>
+        <v>584</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -8836,31 +8914,31 @@
         <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>56201</v>
+        <v>57350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="M6" s="7">
         <v>204</v>
       </c>
       <c r="N6" s="7">
-        <v>107306</v>
+        <v>112359</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,7 +8950,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -8887,7 +8965,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
@@ -8902,7 +8980,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -8925,46 +9003,46 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>3614</v>
+        <v>3390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>454</v>
+        <v>592</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>8205</v>
+        <v>7153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>11819</v>
+        <v>10543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>597</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8976,46 +9054,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>3015</v>
+        <v>2781</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>14716</v>
+        <v>13210</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>17730</v>
+        <v>15990</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>592</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9027,46 +9105,46 @@
         <v>88</v>
       </c>
       <c r="D10" s="7">
-        <v>79685</v>
+        <v>74538</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="H10" s="7">
         <v>190</v>
       </c>
       <c r="I10" s="7">
-        <v>118436</v>
+        <v>108629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>611</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="M10" s="7">
         <v>278</v>
       </c>
       <c r="N10" s="7">
-        <v>198121</v>
+        <v>183166</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9078,7 +9156,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
@@ -9093,7 +9171,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>32</v>
@@ -9108,7 +9186,7 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -9131,46 +9209,46 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>2014</v>
+        <v>1884</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3757</v>
+        <v>3339</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>603</v>
+        <v>115</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5771</v>
+        <v>5223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9182,46 +9260,46 @@
         <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>10380</v>
+        <v>9779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>10715</v>
+        <v>9803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>21095</v>
+        <v>19582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>409</v>
+        <v>627</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9233,46 +9311,46 @@
         <v>102</v>
       </c>
       <c r="D14" s="7">
-        <v>65207</v>
+        <v>61827</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
       </c>
       <c r="I14" s="7">
-        <v>80479</v>
+        <v>74283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
       </c>
       <c r="N14" s="7">
-        <v>145686</v>
+        <v>136110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>556</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9284,7 +9362,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -9299,7 +9377,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>32</v>
@@ -9314,7 +9392,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>32</v>
@@ -9346,37 +9424,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2141</v>
+        <v>2005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>640</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>39</v>
+        <v>641</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>2141</v>
+        <v>2005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9388,46 +9466,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>728</v>
+        <v>669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>646</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>627</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>8671</v>
+        <v>8076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>9399</v>
+        <v>8745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9439,13 +9517,13 @@
         <v>117</v>
       </c>
       <c r="D18" s="7">
-        <v>78077</v>
+        <v>73999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>633</v>
+        <v>142</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>634</v>
+        <v>364</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -9454,31 +9532,31 @@
         <v>231</v>
       </c>
       <c r="I18" s="7">
-        <v>99643</v>
+        <v>93555</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="M18" s="7">
         <v>348</v>
       </c>
       <c r="N18" s="7">
-        <v>177720</v>
+        <v>167553</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>29</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9490,7 +9568,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>32</v>
@@ -9505,7 +9583,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -9520,7 +9598,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -9552,37 +9630,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9594,46 +9672,46 @@
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>2323</v>
+        <v>2054</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>6317</v>
+        <v>5574</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>528</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
       </c>
       <c r="N21" s="7">
-        <v>8640</v>
+        <v>7628</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>648</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9645,46 +9723,46 @@
         <v>67</v>
       </c>
       <c r="D22" s="7">
-        <v>36008</v>
+        <v>32762</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>652</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
       </c>
       <c r="I22" s="7">
-        <v>58293</v>
+        <v>52897</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
       </c>
       <c r="N22" s="7">
-        <v>94301</v>
+        <v>85659</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9696,7 +9774,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>32</v>
@@ -9711,7 +9789,7 @@
         <v>164</v>
       </c>
       <c r="I23" s="7">
-        <v>65095</v>
+        <v>58895</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>32</v>
@@ -9726,7 +9804,7 @@
         <v>235</v>
       </c>
       <c r="N23" s="7">
-        <v>103426</v>
+        <v>93711</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>32</v>
@@ -9749,46 +9827,46 @@
         <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>1591</v>
+        <v>1512</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>178</v>
+        <v>673</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>4519</v>
+        <v>4169</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>6110</v>
+        <v>5681</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9800,46 +9878,46 @@
         <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>3876</v>
+        <v>3700</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>7857</v>
+        <v>7411</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>681</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>667</v>
+        <v>359</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
       </c>
       <c r="N25" s="7">
-        <v>11733</v>
+        <v>11111</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9851,46 +9929,46 @@
         <v>122</v>
       </c>
       <c r="D26" s="7">
-        <v>57716</v>
+        <v>55049</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="H26" s="7">
         <v>142</v>
       </c>
       <c r="I26" s="7">
-        <v>57478</v>
+        <v>53678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="M26" s="7">
         <v>264</v>
       </c>
       <c r="N26" s="7">
-        <v>115194</v>
+        <v>108728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9902,7 +9980,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>32</v>
@@ -9917,7 +9995,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>32</v>
@@ -9932,7 +10010,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>32</v>
@@ -9955,46 +10033,46 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>881</v>
+        <v>837</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>680</v>
+        <v>538</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>694</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
       </c>
       <c r="I28" s="7">
-        <v>3902</v>
+        <v>3520</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>683</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
       </c>
       <c r="N28" s="7">
-        <v>4783</v>
+        <v>4357</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>279</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10006,46 +10084,46 @@
         <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>4567</v>
+        <v>4185</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>584</v>
+        <v>700</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
       </c>
       <c r="I29" s="7">
-        <v>9118</v>
+        <v>8090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>525</v>
+        <v>704</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>689</v>
+        <v>618</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>13684</v>
+        <v>12275</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>494</v>
+        <v>645</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10057,46 +10135,46 @@
         <v>162</v>
       </c>
       <c r="D30" s="7">
-        <v>125393</v>
+        <v>118232</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="H30" s="7">
         <v>222</v>
       </c>
       <c r="I30" s="7">
-        <v>245823</v>
+        <v>327572</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>696</v>
+        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>384</v>
       </c>
       <c r="N30" s="7">
-        <v>371216</v>
+        <v>445804</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10108,7 +10186,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>32</v>
@@ -10123,7 +10201,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>32</v>
@@ -10138,7 +10216,7 @@
         <v>410</v>
       </c>
       <c r="N31" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>32</v>
@@ -10170,37 +10248,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>637</v>
+        <v>536</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>637</v>
+        <v>536</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10212,46 +10290,46 @@
         <v>7</v>
       </c>
       <c r="D33" s="7">
-        <v>4427</v>
+        <v>3812</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>124</v>
+        <v>718</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>684</v>
+        <v>169</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
       </c>
       <c r="I33" s="7">
-        <v>10272</v>
+        <v>7454</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>704</v>
+        <v>20</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>529</v>
+        <v>720</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>705</v>
+        <v>559</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
       </c>
       <c r="N33" s="7">
-        <v>14699</v>
+        <v>11266</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>706</v>
+        <v>351</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10263,46 +10341,46 @@
         <v>228</v>
       </c>
       <c r="D34" s="7">
-        <v>165500</v>
+        <v>143268</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>138</v>
+        <v>429</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="H34" s="7">
         <v>329</v>
       </c>
       <c r="I34" s="7">
-        <v>211601</v>
+        <v>178179</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="M34" s="7">
         <v>557</v>
       </c>
       <c r="N34" s="7">
-        <v>377101</v>
+        <v>321447</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10314,7 +10392,7 @@
         <v>235</v>
       </c>
       <c r="D35" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>32</v>
@@ -10329,7 +10407,7 @@
         <v>342</v>
       </c>
       <c r="I35" s="7">
-        <v>222510</v>
+        <v>186169</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>32</v>
@@ -10344,7 +10422,7 @@
         <v>577</v>
       </c>
       <c r="N35" s="7">
-        <v>392437</v>
+        <v>333249</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>32</v>
@@ -10367,46 +10445,46 @@
         <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>8100</v>
+        <v>7623</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>717</v>
+        <v>415</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>718</v>
+        <v>554</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
       </c>
       <c r="I36" s="7">
-        <v>23644</v>
+        <v>21145</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>425</v>
+        <v>732</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>266</v>
+        <v>733</v>
       </c>
       <c r="M36" s="7">
         <v>53</v>
       </c>
       <c r="N36" s="7">
-        <v>31744</v>
+        <v>28768</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>720</v>
+        <v>179</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>47</v>
+        <v>734</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10418,46 +10496,46 @@
         <v>47</v>
       </c>
       <c r="D37" s="7">
-        <v>30131</v>
+        <v>27872</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>301</v>
+        <v>737</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>579</v>
+        <v>738</v>
       </c>
       <c r="H37" s="7">
         <v>136</v>
       </c>
       <c r="I37" s="7">
-        <v>73684</v>
+        <v>65677</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>146</v>
+        <v>739</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>723</v>
+        <v>279</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="M37" s="7">
         <v>183</v>
       </c>
       <c r="N37" s="7">
-        <v>103815</v>
+        <v>93549</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>453</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10469,46 +10547,46 @@
         <v>968</v>
       </c>
       <c r="D38" s="7">
-        <v>658690</v>
+        <v>614683</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="H38" s="7">
         <v>1528</v>
       </c>
       <c r="I38" s="7">
-        <v>927954</v>
+        <v>946143</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="M38" s="7">
         <v>2496</v>
       </c>
       <c r="N38" s="7">
-        <v>1586645</v>
+        <v>1560826</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>335</v>
+        <v>749</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10520,7 +10598,7 @@
         <v>1027</v>
       </c>
       <c r="D39" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>32</v>
@@ -10535,7 +10613,7 @@
         <v>1705</v>
       </c>
       <c r="I39" s="7">
-        <v>1025283</v>
+        <v>1032965</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>32</v>
@@ -10550,7 +10628,7 @@
         <v>2732</v>
       </c>
       <c r="N39" s="7">
-        <v>1722204</v>
+        <v>1683143</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>32</v>
